--- a/customers.xlsx
+++ b/customers.xlsx
@@ -5,12 +5,12 @@
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\thien\OneDrive\Documents\GitHub\warehouse_project_4\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\nhta1\OneDrive\Documents\warehouse_project_4\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{320C60F9-CA89-4ED4-B5FF-B501235321BB}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D8C2977D-3B27-4856-8CEF-B9054E33B5B2}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12720" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-109" yWindow="-109" windowWidth="26301" windowHeight="14169" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Customers" sheetId="1" r:id="rId1"/>
@@ -20,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="121" uniqueCount="39">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="121" uniqueCount="40">
   <si>
     <t>Customer Code</t>
   </si>
@@ -73,9 +73,6 @@
     <t>123123</t>
   </si>
   <si>
-    <t>cust-6</t>
-  </si>
-  <si>
     <t>text</t>
   </si>
   <si>
@@ -137,6 +134,12 @@
   </si>
   <si>
     <t>123133</t>
+  </si>
+  <si>
+    <t>excel-1</t>
+  </si>
+  <si>
+    <t>abc1</t>
   </si>
 </sst>
 </file>
@@ -508,25 +511,25 @@
   <dimension ref="A1:K12"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="P11" sqref="P11"/>
+      <selection activeCell="B2" sqref="B2"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultRowHeight="14.3" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="21.88671875" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="9.44140625" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="12.21875" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="6.6640625" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="12.109375" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="17.33203125" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="21.875" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="9.5" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="12.25" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="6.625" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="12.125" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="17.375" bestFit="1" customWidth="1"/>
     <col min="7" max="7" width="10" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="8.109375" bestFit="1" customWidth="1"/>
-    <col min="9" max="9" width="17.33203125" bestFit="1" customWidth="1"/>
-    <col min="10" max="10" width="13.6640625" bestFit="1" customWidth="1"/>
-    <col min="11" max="11" width="9.77734375" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="8.125" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="17.375" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="13.625" bestFit="1" customWidth="1"/>
+    <col min="11" max="11" width="9.75" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:11" ht="21" x14ac:dyDescent="0.4">
+    <row r="1" spans="1:11" ht="21.1" x14ac:dyDescent="0.35">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -561,12 +564,12 @@
         <v>10</v>
       </c>
     </row>
-    <row r="2" spans="1:11" ht="18" x14ac:dyDescent="0.35">
+    <row r="2" spans="1:11" ht="19.05" x14ac:dyDescent="0.35">
       <c r="A2" s="2" t="s">
-        <v>17</v>
+        <v>38</v>
       </c>
       <c r="B2" s="2" t="s">
-        <v>11</v>
+        <v>39</v>
       </c>
       <c r="C2" s="2" t="s">
         <v>12</v>
@@ -584,21 +587,21 @@
         <v>16</v>
       </c>
       <c r="H2" s="2" t="s">
+        <v>17</v>
+      </c>
+      <c r="I2" s="2" t="s">
+        <v>17</v>
+      </c>
+      <c r="J2" s="2" t="s">
+        <v>17</v>
+      </c>
+      <c r="K2" s="2" t="b">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="3" spans="1:11" ht="19.05" x14ac:dyDescent="0.35">
+      <c r="A3" s="2" t="s">
         <v>18</v>
-      </c>
-      <c r="I2" s="2" t="s">
-        <v>18</v>
-      </c>
-      <c r="J2" s="2" t="s">
-        <v>18</v>
-      </c>
-      <c r="K2" s="2" t="b">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="3" spans="1:11" ht="18" x14ac:dyDescent="0.35">
-      <c r="A3" s="2" t="s">
-        <v>19</v>
       </c>
       <c r="B3" s="2" t="s">
         <v>11</v>
@@ -616,24 +619,24 @@
         <v>15</v>
       </c>
       <c r="G3" s="2" t="s">
+        <v>19</v>
+      </c>
+      <c r="H3" s="2" t="s">
+        <v>17</v>
+      </c>
+      <c r="I3" s="2" t="s">
+        <v>17</v>
+      </c>
+      <c r="J3" s="2" t="s">
+        <v>17</v>
+      </c>
+      <c r="K3" s="2" t="b">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="4" spans="1:11" ht="19.05" x14ac:dyDescent="0.35">
+      <c r="A4" s="2" t="s">
         <v>20</v>
-      </c>
-      <c r="H3" s="2" t="s">
-        <v>18</v>
-      </c>
-      <c r="I3" s="2" t="s">
-        <v>18</v>
-      </c>
-      <c r="J3" s="2" t="s">
-        <v>18</v>
-      </c>
-      <c r="K3" s="2" t="b">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="4" spans="1:11" ht="18" x14ac:dyDescent="0.35">
-      <c r="A4" s="2" t="s">
-        <v>21</v>
       </c>
       <c r="B4" s="2" t="s">
         <v>11</v>
@@ -651,24 +654,24 @@
         <v>15</v>
       </c>
       <c r="G4" s="2" t="s">
+        <v>21</v>
+      </c>
+      <c r="H4" s="2" t="s">
+        <v>17</v>
+      </c>
+      <c r="I4" s="2" t="s">
+        <v>17</v>
+      </c>
+      <c r="J4" s="2" t="s">
+        <v>17</v>
+      </c>
+      <c r="K4" s="2" t="b">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="5" spans="1:11" ht="19.05" x14ac:dyDescent="0.35">
+      <c r="A5" s="2" t="s">
         <v>22</v>
-      </c>
-      <c r="H4" s="2" t="s">
-        <v>18</v>
-      </c>
-      <c r="I4" s="2" t="s">
-        <v>18</v>
-      </c>
-      <c r="J4" s="2" t="s">
-        <v>18</v>
-      </c>
-      <c r="K4" s="2" t="b">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="5" spans="1:11" ht="18" x14ac:dyDescent="0.35">
-      <c r="A5" s="2" t="s">
-        <v>23</v>
       </c>
       <c r="B5" s="2" t="s">
         <v>11</v>
@@ -686,24 +689,24 @@
         <v>15</v>
       </c>
       <c r="G5" s="2" t="s">
+        <v>23</v>
+      </c>
+      <c r="H5" s="2" t="s">
+        <v>17</v>
+      </c>
+      <c r="I5" s="2" t="s">
+        <v>17</v>
+      </c>
+      <c r="J5" s="2" t="s">
+        <v>17</v>
+      </c>
+      <c r="K5" s="2" t="b">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="6" spans="1:11" ht="19.05" x14ac:dyDescent="0.35">
+      <c r="A6" s="2" t="s">
         <v>24</v>
-      </c>
-      <c r="H5" s="2" t="s">
-        <v>18</v>
-      </c>
-      <c r="I5" s="2" t="s">
-        <v>18</v>
-      </c>
-      <c r="J5" s="2" t="s">
-        <v>18</v>
-      </c>
-      <c r="K5" s="2" t="b">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="6" spans="1:11" ht="18" x14ac:dyDescent="0.35">
-      <c r="A6" s="2" t="s">
-        <v>25</v>
       </c>
       <c r="B6" s="2" t="s">
         <v>11</v>
@@ -721,24 +724,24 @@
         <v>15</v>
       </c>
       <c r="G6" s="2" t="s">
+        <v>25</v>
+      </c>
+      <c r="H6" s="2" t="s">
+        <v>17</v>
+      </c>
+      <c r="I6" s="2" t="s">
+        <v>17</v>
+      </c>
+      <c r="J6" s="2" t="s">
+        <v>17</v>
+      </c>
+      <c r="K6" s="2" t="b">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="7" spans="1:11" ht="19.05" x14ac:dyDescent="0.35">
+      <c r="A7" s="2" t="s">
         <v>26</v>
-      </c>
-      <c r="H6" s="2" t="s">
-        <v>18</v>
-      </c>
-      <c r="I6" s="2" t="s">
-        <v>18</v>
-      </c>
-      <c r="J6" s="2" t="s">
-        <v>18</v>
-      </c>
-      <c r="K6" s="2" t="b">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="7" spans="1:11" ht="18" x14ac:dyDescent="0.35">
-      <c r="A7" s="2" t="s">
-        <v>27</v>
       </c>
       <c r="B7" s="2" t="s">
         <v>11</v>
@@ -756,24 +759,24 @@
         <v>15</v>
       </c>
       <c r="G7" s="2" t="s">
+        <v>27</v>
+      </c>
+      <c r="H7" s="2" t="s">
+        <v>17</v>
+      </c>
+      <c r="I7" s="2" t="s">
+        <v>17</v>
+      </c>
+      <c r="J7" s="2" t="s">
+        <v>17</v>
+      </c>
+      <c r="K7" s="2" t="b">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="8" spans="1:11" ht="19.05" x14ac:dyDescent="0.35">
+      <c r="A8" s="2" t="s">
         <v>28</v>
-      </c>
-      <c r="H7" s="2" t="s">
-        <v>18</v>
-      </c>
-      <c r="I7" s="2" t="s">
-        <v>18</v>
-      </c>
-      <c r="J7" s="2" t="s">
-        <v>18</v>
-      </c>
-      <c r="K7" s="2" t="b">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="8" spans="1:11" ht="18" x14ac:dyDescent="0.35">
-      <c r="A8" s="2" t="s">
-        <v>29</v>
       </c>
       <c r="B8" s="2" t="s">
         <v>11</v>
@@ -791,24 +794,24 @@
         <v>15</v>
       </c>
       <c r="G8" s="2" t="s">
+        <v>29</v>
+      </c>
+      <c r="H8" s="2" t="s">
+        <v>17</v>
+      </c>
+      <c r="I8" s="2" t="s">
+        <v>17</v>
+      </c>
+      <c r="J8" s="2" t="s">
+        <v>17</v>
+      </c>
+      <c r="K8" s="2" t="b">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="9" spans="1:11" ht="19.05" x14ac:dyDescent="0.35">
+      <c r="A9" s="2" t="s">
         <v>30</v>
-      </c>
-      <c r="H8" s="2" t="s">
-        <v>18</v>
-      </c>
-      <c r="I8" s="2" t="s">
-        <v>18</v>
-      </c>
-      <c r="J8" s="2" t="s">
-        <v>18</v>
-      </c>
-      <c r="K8" s="2" t="b">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="9" spans="1:11" ht="18" x14ac:dyDescent="0.35">
-      <c r="A9" s="2" t="s">
-        <v>31</v>
       </c>
       <c r="B9" s="2" t="s">
         <v>11</v>
@@ -826,24 +829,24 @@
         <v>15</v>
       </c>
       <c r="G9" s="2" t="s">
+        <v>31</v>
+      </c>
+      <c r="H9" s="2" t="s">
+        <v>17</v>
+      </c>
+      <c r="I9" s="2" t="s">
+        <v>17</v>
+      </c>
+      <c r="J9" s="2" t="s">
+        <v>17</v>
+      </c>
+      <c r="K9" s="2" t="b">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="10" spans="1:11" ht="19.05" x14ac:dyDescent="0.35">
+      <c r="A10" s="2" t="s">
         <v>32</v>
-      </c>
-      <c r="H9" s="2" t="s">
-        <v>18</v>
-      </c>
-      <c r="I9" s="2" t="s">
-        <v>18</v>
-      </c>
-      <c r="J9" s="2" t="s">
-        <v>18</v>
-      </c>
-      <c r="K9" s="2" t="b">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="10" spans="1:11" ht="18" x14ac:dyDescent="0.35">
-      <c r="A10" s="2" t="s">
-        <v>33</v>
       </c>
       <c r="B10" s="2" t="s">
         <v>11</v>
@@ -861,24 +864,24 @@
         <v>15</v>
       </c>
       <c r="G10" s="2" t="s">
+        <v>33</v>
+      </c>
+      <c r="H10" s="2" t="s">
+        <v>17</v>
+      </c>
+      <c r="I10" s="2" t="s">
+        <v>17</v>
+      </c>
+      <c r="J10" s="2" t="s">
+        <v>17</v>
+      </c>
+      <c r="K10" s="2" t="b">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="11" spans="1:11" ht="19.05" x14ac:dyDescent="0.35">
+      <c r="A11" s="2" t="s">
         <v>34</v>
-      </c>
-      <c r="H10" s="2" t="s">
-        <v>18</v>
-      </c>
-      <c r="I10" s="2" t="s">
-        <v>18</v>
-      </c>
-      <c r="J10" s="2" t="s">
-        <v>18</v>
-      </c>
-      <c r="K10" s="2" t="b">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="11" spans="1:11" ht="18" x14ac:dyDescent="0.35">
-      <c r="A11" s="2" t="s">
-        <v>35</v>
       </c>
       <c r="B11" s="2" t="s">
         <v>11</v>
@@ -896,24 +899,24 @@
         <v>15</v>
       </c>
       <c r="G11" s="2" t="s">
+        <v>35</v>
+      </c>
+      <c r="H11" s="2" t="s">
+        <v>17</v>
+      </c>
+      <c r="I11" s="2" t="s">
+        <v>17</v>
+      </c>
+      <c r="J11" s="2" t="s">
+        <v>17</v>
+      </c>
+      <c r="K11" s="2" t="b">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="12" spans="1:11" ht="19.05" x14ac:dyDescent="0.35">
+      <c r="A12" s="2" t="s">
         <v>36</v>
-      </c>
-      <c r="H11" s="2" t="s">
-        <v>18</v>
-      </c>
-      <c r="I11" s="2" t="s">
-        <v>18</v>
-      </c>
-      <c r="J11" s="2" t="s">
-        <v>18</v>
-      </c>
-      <c r="K11" s="2" t="b">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="12" spans="1:11" ht="18" x14ac:dyDescent="0.35">
-      <c r="A12" s="2" t="s">
-        <v>37</v>
       </c>
       <c r="B12" s="2" t="s">
         <v>11</v>
@@ -931,16 +934,16 @@
         <v>15</v>
       </c>
       <c r="G12" s="2" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="H12" s="2" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="I12" s="2" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="J12" s="2" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="K12" s="2" t="b">
         <v>1</v>

--- a/customers.xlsx
+++ b/customers.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\nhta1\OneDrive\Documents\warehouse_project_4\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D8C2977D-3B27-4856-8CEF-B9054E33B5B2}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{5723F8E9-F244-4CC4-9FB2-8F183DF67807}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-109" yWindow="-109" windowWidth="26301" windowHeight="14169" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -20,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="121" uniqueCount="40">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="65" uniqueCount="39">
   <si>
     <t>Customer Code</t>
   </si>
@@ -55,91 +55,88 @@
     <t>Active</t>
   </si>
   <si>
-    <t>abc</t>
-  </si>
-  <si>
-    <t>xyz</t>
-  </si>
-  <si>
-    <t>hcm</t>
-  </si>
-  <si>
-    <t>vietnam</t>
-  </si>
-  <si>
     <t>mail@mail.com</t>
   </si>
   <si>
     <t>123123</t>
   </si>
   <si>
-    <t>text</t>
-  </si>
-  <si>
-    <t>cust-7</t>
-  </si>
-  <si>
     <t>123124</t>
   </si>
   <si>
-    <t>cust-8</t>
-  </si>
-  <si>
     <t>123125</t>
   </si>
   <si>
-    <t>cust-9</t>
-  </si>
-  <si>
     <t>123126</t>
   </si>
   <si>
-    <t>cust-10</t>
-  </si>
-  <si>
     <t>123127</t>
   </si>
   <si>
-    <t>cust-11</t>
-  </si>
-  <si>
     <t>123128</t>
   </si>
   <si>
-    <t>cust-12</t>
-  </si>
-  <si>
-    <t>123129</t>
-  </si>
-  <si>
-    <t>cust-13</t>
-  </si>
-  <si>
-    <t>123130</t>
-  </si>
-  <si>
-    <t>cust-14</t>
-  </si>
-  <si>
-    <t>123131</t>
-  </si>
-  <si>
-    <t>cust-15</t>
-  </si>
-  <si>
-    <t>123132</t>
-  </si>
-  <si>
-    <t>cust-16</t>
-  </si>
-  <si>
-    <t>123133</t>
-  </si>
-  <si>
-    <t>excel-1</t>
-  </si>
-  <si>
-    <t>abc1</t>
+    <t>cust-77</t>
+  </si>
+  <si>
+    <t>cust-88</t>
+  </si>
+  <si>
+    <t>cust-99</t>
+  </si>
+  <si>
+    <t>cust-100</t>
+  </si>
+  <si>
+    <t>cust-111</t>
+  </si>
+  <si>
+    <t>excel-11</t>
+  </si>
+  <si>
+    <t>Mr Nguyen</t>
+  </si>
+  <si>
+    <t>Mr Sang</t>
+  </si>
+  <si>
+    <t>Nam company</t>
+  </si>
+  <si>
+    <t>C Company</t>
+  </si>
+  <si>
+    <t>Mr Dung</t>
+  </si>
+  <si>
+    <t>Mr Dat</t>
+  </si>
+  <si>
+    <t>23 CMT8</t>
+  </si>
+  <si>
+    <t>Demo</t>
+  </si>
+  <si>
+    <t>HCM</t>
+  </si>
+  <si>
+    <t>Vietnam</t>
+  </si>
+  <si>
+    <t>24 CMT8</t>
+  </si>
+  <si>
+    <t>25 CMT8</t>
+  </si>
+  <si>
+    <t>26 CMT8</t>
+  </si>
+  <si>
+    <t>27 CMT8</t>
+  </si>
+  <si>
+    <t>28 CMT8</t>
   </si>
 </sst>
 </file>
@@ -190,10 +187,13 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="3">
+  <cellXfs count="4">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -511,7 +511,7 @@
   <dimension ref="A1:K12"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B2" sqref="B2"/>
+      <selection activeCell="J7" sqref="J7"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.3" x14ac:dyDescent="0.25"/>
@@ -566,34 +566,34 @@
     </row>
     <row r="2" spans="1:11" ht="19.05" x14ac:dyDescent="0.35">
       <c r="A2" s="2" t="s">
-        <v>38</v>
+        <v>23</v>
       </c>
       <c r="B2" s="2" t="s">
-        <v>39</v>
+        <v>24</v>
       </c>
       <c r="C2" s="2" t="s">
+        <v>30</v>
+      </c>
+      <c r="D2" s="2" t="s">
+        <v>32</v>
+      </c>
+      <c r="E2" s="2" t="s">
+        <v>33</v>
+      </c>
+      <c r="F2" s="2" t="s">
+        <v>11</v>
+      </c>
+      <c r="G2" s="2" t="s">
         <v>12</v>
       </c>
-      <c r="D2" s="2" t="s">
-        <v>13</v>
-      </c>
-      <c r="E2" s="2" t="s">
-        <v>14</v>
-      </c>
-      <c r="F2" s="2" t="s">
-        <v>15</v>
-      </c>
-      <c r="G2" s="2" t="s">
-        <v>16</v>
-      </c>
       <c r="H2" s="2" t="s">
-        <v>17</v>
+        <v>31</v>
       </c>
       <c r="I2" s="2" t="s">
-        <v>17</v>
-      </c>
-      <c r="J2" s="2" t="s">
-        <v>17</v>
+        <v>24</v>
+      </c>
+      <c r="J2" s="3">
+        <v>234569</v>
       </c>
       <c r="K2" s="2" t="b">
         <v>1</v>
@@ -604,31 +604,31 @@
         <v>18</v>
       </c>
       <c r="B3" s="2" t="s">
+        <v>25</v>
+      </c>
+      <c r="C3" s="2" t="s">
+        <v>34</v>
+      </c>
+      <c r="D3" s="2" t="s">
+        <v>32</v>
+      </c>
+      <c r="E3" s="2" t="s">
+        <v>33</v>
+      </c>
+      <c r="F3" s="2" t="s">
         <v>11</v>
       </c>
-      <c r="C3" s="2" t="s">
-        <v>12</v>
-      </c>
-      <c r="D3" s="2" t="s">
+      <c r="G3" s="2" t="s">
         <v>13</v>
       </c>
-      <c r="E3" s="2" t="s">
-        <v>14</v>
-      </c>
-      <c r="F3" s="2" t="s">
-        <v>15</v>
-      </c>
-      <c r="G3" s="2" t="s">
-        <v>19</v>
-      </c>
       <c r="H3" s="2" t="s">
-        <v>17</v>
+        <v>31</v>
       </c>
       <c r="I3" s="2" t="s">
-        <v>17</v>
-      </c>
-      <c r="J3" s="2" t="s">
-        <v>17</v>
+        <v>25</v>
+      </c>
+      <c r="J3" s="3">
+        <v>234569</v>
       </c>
       <c r="K3" s="2" t="b">
         <v>1</v>
@@ -636,34 +636,34 @@
     </row>
     <row r="4" spans="1:11" ht="19.05" x14ac:dyDescent="0.35">
       <c r="A4" s="2" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="B4" s="2" t="s">
+        <v>26</v>
+      </c>
+      <c r="C4" s="2" t="s">
+        <v>35</v>
+      </c>
+      <c r="D4" s="2" t="s">
+        <v>32</v>
+      </c>
+      <c r="E4" s="2" t="s">
+        <v>33</v>
+      </c>
+      <c r="F4" s="2" t="s">
         <v>11</v>
       </c>
-      <c r="C4" s="2" t="s">
-        <v>12</v>
-      </c>
-      <c r="D4" s="2" t="s">
-        <v>13</v>
-      </c>
-      <c r="E4" s="2" t="s">
+      <c r="G4" s="2" t="s">
         <v>14</v>
       </c>
-      <c r="F4" s="2" t="s">
-        <v>15</v>
-      </c>
-      <c r="G4" s="2" t="s">
-        <v>21</v>
-      </c>
       <c r="H4" s="2" t="s">
-        <v>17</v>
+        <v>31</v>
       </c>
       <c r="I4" s="2" t="s">
-        <v>17</v>
-      </c>
-      <c r="J4" s="2" t="s">
-        <v>17</v>
+        <v>26</v>
+      </c>
+      <c r="J4" s="3">
+        <v>234566</v>
       </c>
       <c r="K4" s="2" t="b">
         <v>1</v>
@@ -671,34 +671,34 @@
     </row>
     <row r="5" spans="1:11" ht="19.05" x14ac:dyDescent="0.35">
       <c r="A5" s="2" t="s">
-        <v>22</v>
+        <v>20</v>
       </c>
       <c r="B5" s="2" t="s">
+        <v>27</v>
+      </c>
+      <c r="C5" s="2" t="s">
+        <v>36</v>
+      </c>
+      <c r="D5" s="2" t="s">
+        <v>32</v>
+      </c>
+      <c r="E5" s="2" t="s">
+        <v>33</v>
+      </c>
+      <c r="F5" s="2" t="s">
         <v>11</v>
       </c>
-      <c r="C5" s="2" t="s">
-        <v>12</v>
-      </c>
-      <c r="D5" s="2" t="s">
-        <v>13</v>
-      </c>
-      <c r="E5" s="2" t="s">
-        <v>14</v>
-      </c>
-      <c r="F5" s="2" t="s">
+      <c r="G5" s="2" t="s">
         <v>15</v>
       </c>
-      <c r="G5" s="2" t="s">
-        <v>23</v>
-      </c>
       <c r="H5" s="2" t="s">
-        <v>17</v>
+        <v>31</v>
       </c>
       <c r="I5" s="2" t="s">
-        <v>17</v>
-      </c>
-      <c r="J5" s="2" t="s">
-        <v>17</v>
+        <v>27</v>
+      </c>
+      <c r="J5" s="3">
+        <v>234565</v>
       </c>
       <c r="K5" s="2" t="b">
         <v>1</v>
@@ -706,34 +706,34 @@
     </row>
     <row r="6" spans="1:11" ht="19.05" x14ac:dyDescent="0.35">
       <c r="A6" s="2" t="s">
-        <v>24</v>
+        <v>21</v>
       </c>
       <c r="B6" s="2" t="s">
+        <v>28</v>
+      </c>
+      <c r="C6" s="2" t="s">
+        <v>37</v>
+      </c>
+      <c r="D6" s="2" t="s">
+        <v>32</v>
+      </c>
+      <c r="E6" s="2" t="s">
+        <v>33</v>
+      </c>
+      <c r="F6" s="2" t="s">
         <v>11</v>
       </c>
-      <c r="C6" s="2" t="s">
-        <v>12</v>
-      </c>
-      <c r="D6" s="2" t="s">
-        <v>13</v>
-      </c>
-      <c r="E6" s="2" t="s">
-        <v>14</v>
-      </c>
-      <c r="F6" s="2" t="s">
-        <v>15</v>
-      </c>
       <c r="G6" s="2" t="s">
-        <v>25</v>
+        <v>16</v>
       </c>
       <c r="H6" s="2" t="s">
-        <v>17</v>
+        <v>31</v>
       </c>
       <c r="I6" s="2" t="s">
-        <v>17</v>
-      </c>
-      <c r="J6" s="2" t="s">
-        <v>17</v>
+        <v>28</v>
+      </c>
+      <c r="J6" s="3">
+        <v>234568</v>
       </c>
       <c r="K6" s="2" t="b">
         <v>1</v>
@@ -741,213 +741,103 @@
     </row>
     <row r="7" spans="1:11" ht="19.05" x14ac:dyDescent="0.35">
       <c r="A7" s="2" t="s">
-        <v>26</v>
+        <v>22</v>
       </c>
       <c r="B7" s="2" t="s">
+        <v>29</v>
+      </c>
+      <c r="C7" s="2" t="s">
+        <v>38</v>
+      </c>
+      <c r="D7" s="2" t="s">
+        <v>32</v>
+      </c>
+      <c r="E7" s="2" t="s">
+        <v>33</v>
+      </c>
+      <c r="F7" s="2" t="s">
         <v>11</v>
       </c>
-      <c r="C7" s="2" t="s">
-        <v>12</v>
-      </c>
-      <c r="D7" s="2" t="s">
-        <v>13</v>
-      </c>
-      <c r="E7" s="2" t="s">
-        <v>14</v>
-      </c>
-      <c r="F7" s="2" t="s">
-        <v>15</v>
-      </c>
       <c r="G7" s="2" t="s">
-        <v>27</v>
+        <v>17</v>
       </c>
       <c r="H7" s="2" t="s">
-        <v>17</v>
+        <v>31</v>
       </c>
       <c r="I7" s="2" t="s">
-        <v>17</v>
-      </c>
-      <c r="J7" s="2" t="s">
-        <v>17</v>
+        <v>29</v>
+      </c>
+      <c r="J7" s="3">
+        <v>234562</v>
       </c>
       <c r="K7" s="2" t="b">
         <v>1</v>
       </c>
     </row>
     <row r="8" spans="1:11" ht="19.05" x14ac:dyDescent="0.35">
-      <c r="A8" s="2" t="s">
-        <v>28</v>
-      </c>
-      <c r="B8" s="2" t="s">
-        <v>11</v>
-      </c>
-      <c r="C8" s="2" t="s">
-        <v>12</v>
-      </c>
-      <c r="D8" s="2" t="s">
-        <v>13</v>
-      </c>
-      <c r="E8" s="2" t="s">
-        <v>14</v>
-      </c>
-      <c r="F8" s="2" t="s">
-        <v>15</v>
-      </c>
-      <c r="G8" s="2" t="s">
-        <v>29</v>
-      </c>
-      <c r="H8" s="2" t="s">
-        <v>17</v>
-      </c>
-      <c r="I8" s="2" t="s">
-        <v>17</v>
-      </c>
-      <c r="J8" s="2" t="s">
-        <v>17</v>
-      </c>
-      <c r="K8" s="2" t="b">
-        <v>1</v>
-      </c>
+      <c r="A8" s="2"/>
+      <c r="B8" s="2"/>
+      <c r="C8" s="2"/>
+      <c r="D8" s="2"/>
+      <c r="E8" s="2"/>
+      <c r="F8" s="2"/>
+      <c r="G8" s="2"/>
+      <c r="H8" s="2"/>
+      <c r="I8" s="2"/>
+      <c r="J8" s="2"/>
+      <c r="K8" s="2"/>
     </row>
     <row r="9" spans="1:11" ht="19.05" x14ac:dyDescent="0.35">
-      <c r="A9" s="2" t="s">
-        <v>30</v>
-      </c>
-      <c r="B9" s="2" t="s">
-        <v>11</v>
-      </c>
-      <c r="C9" s="2" t="s">
-        <v>12</v>
-      </c>
-      <c r="D9" s="2" t="s">
-        <v>13</v>
-      </c>
-      <c r="E9" s="2" t="s">
-        <v>14</v>
-      </c>
-      <c r="F9" s="2" t="s">
-        <v>15</v>
-      </c>
-      <c r="G9" s="2" t="s">
-        <v>31</v>
-      </c>
-      <c r="H9" s="2" t="s">
-        <v>17</v>
-      </c>
-      <c r="I9" s="2" t="s">
-        <v>17</v>
-      </c>
-      <c r="J9" s="2" t="s">
-        <v>17</v>
-      </c>
-      <c r="K9" s="2" t="b">
-        <v>1</v>
-      </c>
+      <c r="A9" s="2"/>
+      <c r="B9" s="2"/>
+      <c r="C9" s="2"/>
+      <c r="D9" s="2"/>
+      <c r="E9" s="2"/>
+      <c r="F9" s="2"/>
+      <c r="G9" s="2"/>
+      <c r="H9" s="2"/>
+      <c r="I9" s="2"/>
+      <c r="J9" s="2"/>
+      <c r="K9" s="2"/>
     </row>
     <row r="10" spans="1:11" ht="19.05" x14ac:dyDescent="0.35">
-      <c r="A10" s="2" t="s">
-        <v>32</v>
-      </c>
-      <c r="B10" s="2" t="s">
-        <v>11</v>
-      </c>
-      <c r="C10" s="2" t="s">
-        <v>12</v>
-      </c>
-      <c r="D10" s="2" t="s">
-        <v>13</v>
-      </c>
-      <c r="E10" s="2" t="s">
-        <v>14</v>
-      </c>
-      <c r="F10" s="2" t="s">
-        <v>15</v>
-      </c>
-      <c r="G10" s="2" t="s">
-        <v>33</v>
-      </c>
-      <c r="H10" s="2" t="s">
-        <v>17</v>
-      </c>
-      <c r="I10" s="2" t="s">
-        <v>17</v>
-      </c>
-      <c r="J10" s="2" t="s">
-        <v>17</v>
-      </c>
-      <c r="K10" s="2" t="b">
-        <v>1</v>
-      </c>
+      <c r="A10" s="2"/>
+      <c r="B10" s="2"/>
+      <c r="C10" s="2"/>
+      <c r="D10" s="2"/>
+      <c r="E10" s="2"/>
+      <c r="F10" s="2"/>
+      <c r="G10" s="2"/>
+      <c r="H10" s="2"/>
+      <c r="I10" s="2"/>
+      <c r="J10" s="2"/>
+      <c r="K10" s="2"/>
     </row>
     <row r="11" spans="1:11" ht="19.05" x14ac:dyDescent="0.35">
-      <c r="A11" s="2" t="s">
-        <v>34</v>
-      </c>
-      <c r="B11" s="2" t="s">
-        <v>11</v>
-      </c>
-      <c r="C11" s="2" t="s">
-        <v>12</v>
-      </c>
-      <c r="D11" s="2" t="s">
-        <v>13</v>
-      </c>
-      <c r="E11" s="2" t="s">
-        <v>14</v>
-      </c>
-      <c r="F11" s="2" t="s">
-        <v>15</v>
-      </c>
-      <c r="G11" s="2" t="s">
-        <v>35</v>
-      </c>
-      <c r="H11" s="2" t="s">
-        <v>17</v>
-      </c>
-      <c r="I11" s="2" t="s">
-        <v>17</v>
-      </c>
-      <c r="J11" s="2" t="s">
-        <v>17</v>
-      </c>
-      <c r="K11" s="2" t="b">
-        <v>1</v>
-      </c>
+      <c r="A11" s="2"/>
+      <c r="B11" s="2"/>
+      <c r="C11" s="2"/>
+      <c r="D11" s="2"/>
+      <c r="E11" s="2"/>
+      <c r="F11" s="2"/>
+      <c r="G11" s="2"/>
+      <c r="H11" s="2"/>
+      <c r="I11" s="2"/>
+      <c r="J11" s="2"/>
+      <c r="K11" s="2"/>
     </row>
     <row r="12" spans="1:11" ht="19.05" x14ac:dyDescent="0.35">
-      <c r="A12" s="2" t="s">
-        <v>36</v>
-      </c>
-      <c r="B12" s="2" t="s">
-        <v>11</v>
-      </c>
-      <c r="C12" s="2" t="s">
-        <v>12</v>
-      </c>
-      <c r="D12" s="2" t="s">
-        <v>13</v>
-      </c>
-      <c r="E12" s="2" t="s">
-        <v>14</v>
-      </c>
-      <c r="F12" s="2" t="s">
-        <v>15</v>
-      </c>
-      <c r="G12" s="2" t="s">
-        <v>37</v>
-      </c>
-      <c r="H12" s="2" t="s">
-        <v>17</v>
-      </c>
-      <c r="I12" s="2" t="s">
-        <v>17</v>
-      </c>
-      <c r="J12" s="2" t="s">
-        <v>17</v>
-      </c>
-      <c r="K12" s="2" t="b">
-        <v>1</v>
-      </c>
+      <c r="A12" s="2"/>
+      <c r="B12" s="2"/>
+      <c r="C12" s="2"/>
+      <c r="D12" s="2"/>
+      <c r="E12" s="2"/>
+      <c r="F12" s="2"/>
+      <c r="G12" s="2"/>
+      <c r="H12" s="2"/>
+      <c r="I12" s="2"/>
+      <c r="J12" s="2"/>
+      <c r="K12" s="2"/>
     </row>
   </sheetData>
   <phoneticPr fontId="3" type="noConversion"/>
